--- a/SWE2_A08ex/manualTest.xlsx
+++ b/SWE2_A08ex/manualTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="28">
   <si>
     <t>A</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>ix</t>
+  </si>
+  <si>
+    <t>testGetValidPositions2</t>
+  </si>
+  <si>
+    <t>testGetValidPositions</t>
   </si>
 </sst>
 </file>
@@ -109,12 +115,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,11 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,18 +448,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Y99"/>
+  <dimension ref="A1:AC100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -475,8 +497,36 @@
       <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -487,8 +537,18 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -499,8 +559,18 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U5" s="1">
+        <v>2</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -511,8 +581,18 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U6" s="1">
+        <v>3</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -527,8 +607,22 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U7" s="1">
+        <v>4</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -543,8 +637,22 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U8" s="1">
+        <v>5</v>
+      </c>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -555,8 +663,18 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U9" s="1">
+        <v>6</v>
+      </c>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -567,8 +685,18 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U10" s="1">
+        <v>7</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -579,8 +707,18 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U11" s="1">
+        <v>8</v>
+      </c>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -609,8 +747,36 @@
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T14" t="s">
+        <v>18</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -621,8 +787,18 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -633,8 +809,18 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U16" s="1">
+        <v>2</v>
+      </c>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>3</v>
       </c>
@@ -645,8 +831,18 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U17" s="1">
+        <v>3</v>
+      </c>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>4</v>
       </c>
@@ -663,8 +859,24 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U18" s="1">
+        <v>4</v>
+      </c>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>5</v>
       </c>
@@ -679,8 +891,22 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U19" s="1">
+        <v>5</v>
+      </c>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>6</v>
       </c>
@@ -691,8 +917,18 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U20" s="1">
+        <v>6</v>
+      </c>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>7</v>
       </c>
@@ -703,8 +939,18 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U21" s="1">
+        <v>7</v>
+      </c>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>8</v>
       </c>
@@ -715,8 +961,18 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U22" s="1">
+        <v>8</v>
+      </c>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -745,8 +1001,36 @@
       <c r="J25" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>18</v>
+      </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>1</v>
       </c>
@@ -757,8 +1041,18 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>2</v>
       </c>
@@ -769,8 +1063,18 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U27" s="1">
+        <v>2</v>
+      </c>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -783,8 +1087,20 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U28" s="1">
+        <v>3</v>
+      </c>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>4</v>
       </c>
@@ -801,8 +1117,24 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U29" s="1">
+        <v>4</v>
+      </c>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>5</v>
       </c>
@@ -817,8 +1149,22 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U30" s="1">
+        <v>5</v>
+      </c>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>6</v>
       </c>
@@ -829,8 +1175,18 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U31" s="1">
+        <v>6</v>
+      </c>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>7</v>
       </c>
@@ -841,8 +1197,18 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U32" s="1">
+        <v>7</v>
+      </c>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>8</v>
       </c>
@@ -853,8 +1219,18 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U33" s="1">
+        <v>8</v>
+      </c>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -883,8 +1259,36 @@
       <c r="J36" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T36" t="s">
+        <v>19</v>
+      </c>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>1</v>
       </c>
@@ -895,8 +1299,18 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U37" s="1">
+        <v>1</v>
+      </c>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>2</v>
       </c>
@@ -907,8 +1321,20 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U38" s="1">
+        <v>2</v>
+      </c>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB38" s="1"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>3</v>
       </c>
@@ -923,8 +1349,20 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U39" s="1">
+        <v>3</v>
+      </c>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>4</v>
       </c>
@@ -941,8 +1379,24 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U40" s="1">
+        <v>4</v>
+      </c>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>5</v>
       </c>
@@ -957,8 +1411,22 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U41" s="1">
+        <v>5</v>
+      </c>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>6</v>
       </c>
@@ -969,8 +1437,18 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U42" s="1">
+        <v>6</v>
+      </c>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>7</v>
       </c>
@@ -981,8 +1459,18 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U43" s="1">
+        <v>7</v>
+      </c>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>8</v>
       </c>
@@ -993,8 +1481,18 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U44" s="1">
+        <v>8</v>
+      </c>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -1023,8 +1521,36 @@
       <c r="J47" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T47" t="s">
+        <v>20</v>
+      </c>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>1</v>
       </c>
@@ -1035,8 +1561,18 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U48" s="1">
+        <v>1</v>
+      </c>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>2</v>
       </c>
@@ -1047,8 +1583,20 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U49" s="1">
+        <v>2</v>
+      </c>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB49" s="1"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>3</v>
       </c>
@@ -1065,8 +1613,20 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U50" s="1">
+        <v>3</v>
+      </c>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>4</v>
       </c>
@@ -1083,8 +1643,24 @@
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U51" s="1">
+        <v>4</v>
+      </c>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>5</v>
       </c>
@@ -1099,8 +1675,22 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U52" s="1">
+        <v>5</v>
+      </c>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>6</v>
       </c>
@@ -1111,8 +1701,18 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U53" s="1">
+        <v>6</v>
+      </c>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>7</v>
       </c>
@@ -1123,8 +1723,18 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U54" s="1">
+        <v>7</v>
+      </c>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>8</v>
       </c>
@@ -1135,8 +1745,18 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U55" s="1">
+        <v>8</v>
+      </c>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -1166,7 +1786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>1</v>
       </c>
@@ -1178,7 +1798,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>2</v>
       </c>
@@ -1192,7 +1812,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>3</v>
       </c>
@@ -1210,7 +1830,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>4</v>
       </c>
@@ -1228,7 +1848,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>5</v>
       </c>
@@ -1244,7 +1864,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>6</v>
       </c>
@@ -1456,7 +2076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>1</v>
       </c>
@@ -1470,7 +2090,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>2</v>
       </c>
@@ -1484,7 +2104,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>3</v>
       </c>
@@ -1502,7 +2122,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>4</v>
       </c>
@@ -1520,7 +2140,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>5</v>
       </c>
@@ -1538,7 +2158,7 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>6</v>
       </c>
@@ -1550,7 +2170,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>7</v>
       </c>
@@ -1562,7 +2182,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>8</v>
       </c>
@@ -1574,7 +2194,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>25</v>
       </c>
@@ -1604,7 +2224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>1</v>
       </c>
@@ -1618,7 +2238,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>2</v>
       </c>
@@ -1632,7 +2252,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>3</v>
       </c>
@@ -1651,17 +2271,8 @@
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="V94" t="s">
-        <v>10</v>
-      </c>
-      <c r="W94" t="s">
-        <v>11</v>
-      </c>
-      <c r="X94" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>4</v>
       </c>
@@ -1680,20 +2291,8 @@
         <v>8</v>
       </c>
       <c r="I95" s="1"/>
-      <c r="V95" t="s">
-        <v>12</v>
-      </c>
-      <c r="W95" t="s">
-        <v>13</v>
-      </c>
-      <c r="X95" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>5</v>
       </c>
@@ -1742,10 +2341,29 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SWE2_A08ex/manualTest.xlsx
+++ b/SWE2_A08ex/manualTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="41">
   <si>
     <t>A</t>
   </si>
@@ -100,6 +100,45 @@
   </si>
   <si>
     <t>testGetValidPositions</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>B_1</t>
+  </si>
+  <si>
+    <t>B_2</t>
+  </si>
+  <si>
+    <t>B_3</t>
+  </si>
+  <si>
+    <t>B_4</t>
+  </si>
+  <si>
+    <t>C_5</t>
+  </si>
+  <si>
+    <t>C_6</t>
   </si>
 </sst>
 </file>
@@ -115,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +164,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,12 +186,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC100"/>
+  <dimension ref="A1:AD100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="AA62" sqref="AA62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1621,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>2</v>
       </c>
@@ -1596,7 +1645,7 @@
       </c>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>3</v>
       </c>
@@ -1626,7 +1675,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>4</v>
       </c>
@@ -1660,7 +1709,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>5</v>
       </c>
@@ -1690,7 +1739,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>6</v>
       </c>
@@ -1712,7 +1761,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>7</v>
       </c>
@@ -1734,7 +1783,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>8</v>
       </c>
@@ -1756,151 +1805,362 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="1" t="s">
+      <c r="D58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B59" s="1">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B60" s="1">
-        <v>2</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B61" s="1">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B62" s="1">
-        <v>4</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B63" s="1">
-        <v>5</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B64" s="1">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="1">
-        <v>7</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="1">
-        <v>8</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="T58" t="s">
+        <v>21</v>
+      </c>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="U59" s="1">
+        <v>1</v>
+      </c>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4">
+        <v>2</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="U60" s="1">
+        <v>2</v>
+      </c>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB60" s="1"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4">
+        <v>3</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="U61" s="1">
+        <v>3</v>
+      </c>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="U62" s="1">
+        <v>4</v>
+      </c>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4">
+        <v>5</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="U63" s="1">
+        <v>5</v>
+      </c>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4">
+        <v>6</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L64" s="3"/>
+      <c r="U64" s="1">
+        <v>6</v>
+      </c>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4">
+        <v>7</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="U65" s="1">
+        <v>7</v>
+      </c>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="4">
+        <v>8</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="U66" s="1">
+        <v>8</v>
+      </c>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -1929,8 +2189,37 @@
       <c r="J69" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD69" s="3"/>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>1</v>
       </c>
@@ -1943,8 +2232,21 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T70" s="3"/>
+      <c r="U70" s="4">
+        <v>1</v>
+      </c>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="3"/>
+      <c r="AD70" s="3"/>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>2</v>
       </c>
@@ -1957,8 +2259,23 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T71" s="3"/>
+      <c r="U71" s="4">
+        <v>2</v>
+      </c>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>3</v>
       </c>
@@ -1975,8 +2292,23 @@
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T72" s="3"/>
+      <c r="U72" s="4">
+        <v>3</v>
+      </c>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="3"/>
+      <c r="AD72" s="3"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>4</v>
       </c>
@@ -1993,8 +2325,27 @@
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T73" s="3"/>
+      <c r="U73" s="4">
+        <v>4</v>
+      </c>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3"/>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>5</v>
       </c>
@@ -2009,8 +2360,27 @@
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T74" s="3"/>
+      <c r="U74" s="4">
+        <v>5</v>
+      </c>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA74" s="4"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3"/>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>6</v>
       </c>
@@ -2021,8 +2391,23 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T75" s="3"/>
+      <c r="U75" s="4">
+        <v>6</v>
+      </c>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>7</v>
       </c>
@@ -2033,8 +2418,21 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T76" s="3"/>
+      <c r="U76" s="4">
+        <v>7</v>
+      </c>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>8</v>
       </c>
@@ -2045,8 +2443,59 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T77" s="3"/>
+      <c r="U77" s="4">
+        <v>8</v>
+      </c>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y78" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z78" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3"/>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -2075,8 +2524,21 @@
       <c r="J80" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+      <c r="AD80" s="3"/>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>1</v>
       </c>
@@ -2089,8 +2551,19 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3"/>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>2</v>
       </c>
@@ -2104,7 +2577,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>3</v>
       </c>
@@ -2122,7 +2595,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>4</v>
       </c>
@@ -2140,7 +2613,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>5</v>
       </c>
@@ -2158,7 +2631,7 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>6</v>
       </c>
@@ -2170,7 +2643,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>7</v>
       </c>
@@ -2182,7 +2655,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>8</v>
       </c>
@@ -2194,7 +2667,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>25</v>
       </c>
@@ -2224,7 +2697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>1</v>
       </c>
@@ -2238,7 +2711,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>2</v>
       </c>
@@ -2252,7 +2725,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>3</v>
       </c>
@@ -2272,7 +2745,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>4</v>
       </c>
@@ -2292,7 +2765,7 @@
       </c>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>5</v>
       </c>

--- a/SWE2_A08ex/manualTest.xlsx
+++ b/SWE2_A08ex/manualTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="28">
   <si>
     <t>A</t>
   </si>
@@ -100,45 +100,6 @@
   </si>
   <si>
     <t>testGetValidPositions</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>B_1</t>
-  </si>
-  <si>
-    <t>B_2</t>
-  </si>
-  <si>
-    <t>B_3</t>
-  </si>
-  <si>
-    <t>B_4</t>
-  </si>
-  <si>
-    <t>C_5</t>
-  </si>
-  <si>
-    <t>C_6</t>
   </si>
 </sst>
 </file>
@@ -154,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,12 +125,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,16 +141,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD100"/>
+  <dimension ref="A1:AC100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="AA62" sqref="AA62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1572,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>2</v>
       </c>
@@ -1645,7 +1596,7 @@
       </c>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>3</v>
       </c>
@@ -1675,7 +1626,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>4</v>
       </c>
@@ -1709,7 +1660,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>5</v>
       </c>
@@ -1739,7 +1690,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>6</v>
       </c>
@@ -1761,7 +1712,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>7</v>
       </c>
@@ -1783,7 +1734,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>8</v>
       </c>
@@ -1805,362 +1756,151 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="4" t="s">
+      <c r="D58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="T58" t="s">
-        <v>21</v>
-      </c>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC58" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4">
-        <v>1</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="U59" s="1">
-        <v>1</v>
-      </c>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4">
-        <v>2</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="U60" s="1">
-        <v>2</v>
-      </c>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB60" s="1"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4">
-        <v>3</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="U61" s="1">
-        <v>3</v>
-      </c>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4">
-        <v>4</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L62" s="3"/>
-      <c r="U62" s="1">
-        <v>4</v>
-      </c>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA62" s="1"/>
-      <c r="AB62" s="1"/>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4">
-        <v>5</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L63" s="3"/>
-      <c r="U63" s="1">
-        <v>5</v>
-      </c>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="1"/>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4">
-        <v>6</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L64" s="3"/>
-      <c r="U64" s="1">
-        <v>6</v>
-      </c>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4">
-        <v>7</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L65" s="3"/>
-      <c r="U65" s="1">
-        <v>7</v>
-      </c>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4">
-        <v>8</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L66" s="3"/>
-      <c r="U66" s="1">
-        <v>8</v>
-      </c>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="1"/>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="H58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -2189,37 +1929,8 @@
       <c r="J69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T69" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W69" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="X69" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA69" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB69" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC69" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD69" s="3"/>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>1</v>
       </c>
@@ -2232,21 +1943,8 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="4">
-        <v>1</v>
-      </c>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
-      <c r="AB70" s="4"/>
-      <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>2</v>
       </c>
@@ -2259,23 +1957,8 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="4">
-        <v>2</v>
-      </c>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB71" s="4"/>
-      <c r="AC71" s="3"/>
-      <c r="AD71" s="3"/>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>3</v>
       </c>
@@ -2292,23 +1975,8 @@
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="4">
-        <v>3</v>
-      </c>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA72" s="4"/>
-      <c r="AB72" s="4"/>
-      <c r="AC72" s="3"/>
-      <c r="AD72" s="3"/>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>4</v>
       </c>
@@ -2325,27 +1993,8 @@
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="4">
-        <v>4</v>
-      </c>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>5</v>
       </c>
@@ -2360,27 +2009,8 @@
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="4">
-        <v>5</v>
-      </c>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA74" s="4"/>
-      <c r="AB74" s="4"/>
-      <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>6</v>
       </c>
@@ -2391,23 +2021,8 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="4">
-        <v>6</v>
-      </c>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AC75" s="3"/>
-      <c r="AD75" s="3"/>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>7</v>
       </c>
@@ -2418,21 +2033,8 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="4">
-        <v>7</v>
-      </c>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>8</v>
       </c>
@@ -2443,59 +2045,8 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="4">
-        <v>8</v>
-      </c>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4"/>
-      <c r="AA77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AC77" s="3"/>
-      <c r="AD77" s="3"/>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X78" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y78" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z78" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA78" s="3"/>
-      <c r="AB78" s="3"/>
-      <c r="AC78" s="3"/>
-      <c r="AD78" s="3"/>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-      <c r="AA79" s="3"/>
-      <c r="AB79" s="3"/>
-      <c r="AC79" s="3"/>
-      <c r="AD79" s="3"/>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -2524,21 +2075,8 @@
       <c r="J80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
-      <c r="AD80" s="3"/>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>1</v>
       </c>
@@ -2551,19 +2089,8 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
-      <c r="AA81" s="3"/>
-      <c r="AB81" s="3"/>
-      <c r="AC81" s="3"/>
-      <c r="AD81" s="3"/>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>2</v>
       </c>
@@ -2577,7 +2104,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>3</v>
       </c>
@@ -2595,7 +2122,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>4</v>
       </c>
@@ -2613,7 +2140,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>5</v>
       </c>
@@ -2631,7 +2158,7 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>6</v>
       </c>
@@ -2643,7 +2170,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>7</v>
       </c>
@@ -2655,7 +2182,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>8</v>
       </c>
@@ -2667,7 +2194,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>25</v>
       </c>
@@ -2697,7 +2224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>1</v>
       </c>
@@ -2711,7 +2238,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>2</v>
       </c>
@@ -2725,7 +2252,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>3</v>
       </c>
@@ -2745,7 +2272,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>4</v>
       </c>
@@ -2765,7 +2292,7 @@
       </c>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>5</v>
       </c>

--- a/SWE2_A08ex/manualTest.xlsx
+++ b/SWE2_A08ex/manualTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="28">
   <si>
     <t>A</t>
   </si>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="T25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
@@ -1260,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="T36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
@@ -1522,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="T47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U47" s="1"/>
       <c r="V47" s="1" t="s">
@@ -1572,7 +1572,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>2</v>
       </c>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>3</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>7</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>7</v>
@@ -1626,7 +1626,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>4</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>5</v>
       </c>
@@ -1680,9 +1680,11 @@
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
+      <c r="X52" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="Y52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z52" s="1" t="s">
         <v>7</v>
@@ -1690,7 +1692,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>6</v>
       </c>
@@ -1712,7 +1714,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>7</v>
       </c>
@@ -1734,7 +1736,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>8</v>
       </c>
@@ -1756,7 +1758,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -1785,8 +1787,36 @@
       <c r="J58" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T58" t="s">
+        <v>22</v>
+      </c>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>1</v>
       </c>
@@ -1797,8 +1827,18 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U59" s="1">
+        <v>1</v>
+      </c>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>2</v>
       </c>
@@ -1811,8 +1851,20 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U60" s="1">
+        <v>2</v>
+      </c>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB60" s="1"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>3</v>
       </c>
@@ -1822,15 +1874,27 @@
         <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U61" s="1">
+        <v>3</v>
+      </c>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>4</v>
       </c>
@@ -1847,8 +1911,24 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U62" s="1">
+        <v>4</v>
+      </c>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>5</v>
       </c>
@@ -1863,8 +1943,24 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U63" s="1">
+        <v>5</v>
+      </c>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>6</v>
       </c>
@@ -1875,8 +1971,20 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U64" s="1">
+        <v>6</v>
+      </c>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>7</v>
       </c>
@@ -1887,8 +1995,18 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U65" s="1">
+        <v>7</v>
+      </c>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>8</v>
       </c>
@@ -1899,8 +2017,18 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="U66" s="1">
+        <v>8</v>
+      </c>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -1930,7 +2058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>1</v>
       </c>
@@ -1944,7 +2072,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>2</v>
       </c>
@@ -1958,7 +2086,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>3</v>
       </c>
@@ -1976,7 +2104,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>4</v>
       </c>
@@ -1994,7 +2122,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>5</v>
       </c>
@@ -2010,7 +2138,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>6</v>
       </c>
@@ -2022,7 +2150,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>7</v>
       </c>
@@ -2034,7 +2162,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>8</v>
       </c>
@@ -2046,7 +2174,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>24</v>
       </c>

--- a/SWE2_A08ex/manualTest.xlsx
+++ b/SWE2_A08ex/manualTest.xlsx
@@ -99,7 +99,7 @@
     <t>testGetValidPositions2</t>
   </si>
   <si>
-    <t>testGetValidPositions</t>
+    <t>testGetValidPositions1</t>
   </si>
 </sst>
 </file>
@@ -115,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,7 +124,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,12 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AC100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="S66" sqref="S66"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="Q86" sqref="Q86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,9 +474,13 @@
       <c r="C1" t="s">
         <v>26</v>
       </c>
+      <c r="O1" s="3"/>
       <c r="T1" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -497,6 +511,7 @@
       <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="O3" s="3"/>
       <c r="T3" t="s">
         <v>17</v>
       </c>
@@ -537,6 +552,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
+      <c r="O4" s="3"/>
       <c r="U4" s="1">
         <v>1</v>
       </c>
@@ -559,6 +575,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
+      <c r="O5" s="3"/>
       <c r="U5" s="1">
         <v>2</v>
       </c>
@@ -581,6 +598,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
+      <c r="O6" s="3"/>
       <c r="U6" s="1">
         <v>3</v>
       </c>
@@ -607,6 +625,7 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
+      <c r="O7" s="3"/>
       <c r="U7" s="1">
         <v>4</v>
       </c>
@@ -637,6 +656,7 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
+      <c r="O8" s="3"/>
       <c r="U8" s="1">
         <v>5</v>
       </c>
@@ -663,6 +683,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
+      <c r="O9" s="3"/>
       <c r="U9" s="1">
         <v>6</v>
       </c>
@@ -685,6 +706,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
+      <c r="O10" s="3"/>
       <c r="U10" s="1">
         <v>7</v>
       </c>
@@ -707,6 +729,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
+      <c r="O11" s="3"/>
       <c r="U11" s="1">
         <v>8</v>
       </c>
@@ -718,6 +741,12 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O13" s="3"/>
+    </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
@@ -747,6 +776,7 @@
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="O14" s="3"/>
       <c r="T14" t="s">
         <v>18</v>
       </c>
@@ -787,6 +817,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
+      <c r="O15" s="3"/>
       <c r="U15" s="1">
         <v>1</v>
       </c>
@@ -809,6 +840,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
+      <c r="O16" s="3"/>
       <c r="U16" s="1">
         <v>2</v>
       </c>
@@ -831,6 +863,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
+      <c r="O17" s="3"/>
       <c r="U17" s="1">
         <v>3</v>
       </c>
@@ -859,6 +892,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
+      <c r="O18" s="3"/>
       <c r="U18" s="1">
         <v>4</v>
       </c>
@@ -891,6 +925,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
+      <c r="O19" s="3"/>
       <c r="U19" s="1">
         <v>5</v>
       </c>
@@ -917,6 +952,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
+      <c r="O20" s="3"/>
       <c r="U20" s="1">
         <v>6</v>
       </c>
@@ -939,6 +975,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
+      <c r="O21" s="3"/>
       <c r="U21" s="1">
         <v>7</v>
       </c>
@@ -961,6 +998,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
+      <c r="O22" s="3"/>
       <c r="U22" s="1">
         <v>8</v>
       </c>
@@ -972,6 +1010,12 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O24" s="3"/>
+    </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
@@ -1001,6 +1045,7 @@
       <c r="J25" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="O25" s="3"/>
       <c r="T25" t="s">
         <v>19</v>
       </c>
@@ -1041,6 +1086,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
+      <c r="O26" s="3"/>
       <c r="U26" s="1">
         <v>1</v>
       </c>
@@ -1063,6 +1109,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
+      <c r="O27" s="3"/>
       <c r="U27" s="1">
         <v>2</v>
       </c>
@@ -1087,6 +1134,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
+      <c r="O28" s="3"/>
       <c r="U28" s="1">
         <v>3</v>
       </c>
@@ -1117,6 +1165,7 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
+      <c r="O29" s="3"/>
       <c r="U29" s="1">
         <v>4</v>
       </c>
@@ -1149,6 +1198,7 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
+      <c r="O30" s="3"/>
       <c r="U30" s="1">
         <v>5</v>
       </c>
@@ -1175,6 +1225,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
+      <c r="O31" s="3"/>
       <c r="U31" s="1">
         <v>6</v>
       </c>
@@ -1197,6 +1248,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
+      <c r="O32" s="3"/>
       <c r="U32" s="1">
         <v>7</v>
       </c>
@@ -1219,6 +1271,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
+      <c r="O33" s="3"/>
       <c r="U33" s="1">
         <v>8</v>
       </c>
@@ -1230,6 +1283,12 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O35" s="3"/>
+    </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
@@ -1259,6 +1318,7 @@
       <c r="J36" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="O36" s="3"/>
       <c r="T36" t="s">
         <v>20</v>
       </c>
@@ -1299,6 +1359,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
+      <c r="O37" s="3"/>
       <c r="U37" s="1">
         <v>1</v>
       </c>
@@ -1321,6 +1382,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
+      <c r="O38" s="3"/>
       <c r="U38" s="1">
         <v>2</v>
       </c>
@@ -1349,6 +1411,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
+      <c r="O39" s="3"/>
       <c r="U39" s="1">
         <v>3</v>
       </c>
@@ -1379,6 +1442,7 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
+      <c r="O40" s="3"/>
       <c r="U40" s="1">
         <v>4</v>
       </c>
@@ -1411,6 +1475,7 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
+      <c r="O41" s="3"/>
       <c r="U41" s="1">
         <v>5</v>
       </c>
@@ -1437,6 +1502,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
+      <c r="O42" s="3"/>
       <c r="U42" s="1">
         <v>6</v>
       </c>
@@ -1459,6 +1525,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
+      <c r="O43" s="3"/>
       <c r="U43" s="1">
         <v>7</v>
       </c>
@@ -1481,6 +1548,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
+      <c r="O44" s="3"/>
       <c r="U44" s="1">
         <v>8</v>
       </c>
@@ -1492,6 +1560,12 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O46" s="3"/>
+    </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
@@ -1521,6 +1595,7 @@
       <c r="J47" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="O47" s="3"/>
       <c r="T47" t="s">
         <v>21</v>
       </c>
@@ -1561,6 +1636,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
+      <c r="O48" s="3"/>
       <c r="U48" s="1">
         <v>1</v>
       </c>
@@ -1583,6 +1659,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
+      <c r="O49" s="3"/>
       <c r="U49" s="1">
         <v>2</v>
       </c>
@@ -1613,6 +1690,7 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
+      <c r="O50" s="3"/>
       <c r="U50" s="1">
         <v>3</v>
       </c>
@@ -1643,6 +1721,7 @@
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
+      <c r="O51" s="3"/>
       <c r="U51" s="1">
         <v>4</v>
       </c>
@@ -1675,6 +1754,7 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
+      <c r="O52" s="3"/>
       <c r="U52" s="1">
         <v>5</v>
       </c>
@@ -1703,6 +1783,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
+      <c r="O53" s="3"/>
       <c r="U53" s="1">
         <v>6</v>
       </c>
@@ -1725,6 +1806,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
+      <c r="O54" s="3"/>
       <c r="U54" s="1">
         <v>7</v>
       </c>
@@ -1747,6 +1829,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
+      <c r="O55" s="3"/>
       <c r="U55" s="1">
         <v>8</v>
       </c>
@@ -1758,6 +1841,12 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O57" s="3"/>
+    </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
@@ -1787,6 +1876,7 @@
       <c r="J58" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="O58" s="3"/>
       <c r="T58" t="s">
         <v>22</v>
       </c>
@@ -1827,6 +1917,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
+      <c r="O59" s="3"/>
       <c r="U59" s="1">
         <v>1</v>
       </c>
@@ -1851,6 +1942,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
+      <c r="O60" s="3"/>
       <c r="U60" s="1">
         <v>2</v>
       </c>
@@ -1881,6 +1973,7 @@
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
+      <c r="O61" s="3"/>
       <c r="U61" s="1">
         <v>3</v>
       </c>
@@ -1911,6 +2004,7 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
+      <c r="O62" s="3"/>
       <c r="U62" s="1">
         <v>4</v>
       </c>
@@ -1943,6 +2037,7 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
+      <c r="O63" s="3"/>
       <c r="U63" s="1">
         <v>5</v>
       </c>
@@ -1971,6 +2066,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
+      <c r="O64" s="3"/>
       <c r="U64" s="1">
         <v>6</v>
       </c>
@@ -1995,6 +2091,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
+      <c r="O65" s="3"/>
       <c r="U65" s="1">
         <v>7</v>
       </c>
@@ -2017,6 +2114,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
+      <c r="O66" s="3"/>
       <c r="U66" s="1">
         <v>8</v>
       </c>
@@ -2028,6 +2126,12 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O68" s="3"/>
+    </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>23</v>
@@ -2057,6 +2161,7 @@
       <c r="J69" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="O69" s="3"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
@@ -2071,6 +2176,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
+      <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
@@ -2085,6 +2191,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
+      <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
@@ -2103,6 +2210,7 @@
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
+      <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
@@ -2121,6 +2229,7 @@
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
+      <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
@@ -2137,6 +2246,7 @@
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
+      <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
@@ -2149,6 +2259,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
+      <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
@@ -2161,6 +2272,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
+      <c r="O76" s="3"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
@@ -2173,6 +2285,13 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O79" s="3"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -2203,8 +2322,9 @@
       <c r="J80" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>1</v>
       </c>
@@ -2217,8 +2337,9 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>2</v>
       </c>
@@ -2231,8 +2352,9 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>3</v>
       </c>
@@ -2249,8 +2371,9 @@
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>4</v>
       </c>
@@ -2267,8 +2390,9 @@
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>5</v>
       </c>
@@ -2285,8 +2409,9 @@
         <v>8</v>
       </c>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>6</v>
       </c>
@@ -2297,8 +2422,9 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>7</v>
       </c>
@@ -2309,8 +2435,9 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>8</v>
       </c>
@@ -2321,8 +2448,15 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>25</v>
       </c>
@@ -2351,8 +2485,9 @@
       <c r="J91" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>1</v>
       </c>
@@ -2365,8 +2500,9 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>2</v>
       </c>
@@ -2379,8 +2515,9 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>3</v>
       </c>
@@ -2399,8 +2536,9 @@
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>4</v>
       </c>
@@ -2419,8 +2557,9 @@
         <v>8</v>
       </c>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>5</v>
       </c>
@@ -2437,8 +2576,9 @@
         <v>8</v>
       </c>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>6</v>
       </c>
@@ -2449,8 +2589,9 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>7</v>
       </c>
@@ -2461,8 +2602,9 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>8</v>
       </c>
@@ -2478,8 +2620,9 @@
       <c r="H99" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F100" t="s">
         <v>12</v>
       </c>
@@ -2492,9 +2635,11 @@
       <c r="I100" t="s">
         <v>15</v>
       </c>
+      <c r="O100" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
